--- a/ixp_app/static/reference/reference.xlsx
+++ b/ixp_app/static/reference/reference.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="166">
   <si>
     <t>StepNumber</t>
   </si>
@@ -510,6 +510,15 @@
   </si>
   <si>
     <t>REF1_UNIT18_SN</t>
+  </si>
+  <si>
+    <t>REF1_UNIT16_SEQ</t>
+  </si>
+  <si>
+    <t>REF1_UNIT17_SEQ</t>
+  </si>
+  <si>
+    <t>REF1_UNIT18_SEQ</t>
   </si>
 </sst>
 </file>
@@ -534,13 +543,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -632,7 +641,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -644,8 +653,8 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -653,19 +662,19 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1127,9 +1136,11 @@
       <c r="T2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="U2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1190,9 +1201,11 @@
       <c r="T3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="U3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1253,9 +1266,11 @@
       <c r="T4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="U4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="U4" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1331,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1377,7 +1392,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1453,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +1514,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1560,7 +1575,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1636,7 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1646,7 +1661,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1686,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1696,7 +1711,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +1736,7 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1761,7 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +1786,7 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1811,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1836,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1846,7 +1861,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
@@ -1871,7 +1886,7 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1911,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1921,7 +1936,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
@@ -1946,7 +1961,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -1971,7 +1986,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +2011,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
@@ -2021,7 +2036,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2061,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2086,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
